--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81412\Desktop\柠檬班\futureloan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC11E37F-A4A8-4071-AA89-828FD92AD505}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE32EB7-C273-4A27-B613-43900BF025EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="315" windowWidth="12930" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="315" windowWidth="12930" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,18 +46,6 @@
   </si>
   <si>
     <t>用例4</t>
-  </si>
-  <si>
-    <t>用例5</t>
-  </si>
-  <si>
-    <t>用例6</t>
-  </si>
-  <si>
-    <t>用例7</t>
-  </si>
-  <si>
-    <t>用例8</t>
   </si>
 </sst>
 </file>
@@ -382,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -430,38 +418,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81412\Desktop\柠檬班\futureloan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE32EB7-C273-4A27-B613-43900BF025EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9B3060-1328-4095-A427-210DE3C4EFAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="945" yWindow="315" windowWidth="12930" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>用例4</t>
+  </si>
+  <si>
+    <t>用例5</t>
+  </si>
+  <si>
+    <t>用例6</t>
+  </si>
+  <si>
+    <t>用例7</t>
   </si>
 </sst>
 </file>
@@ -370,7 +379,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
@@ -418,6 +427,30 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
